--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFS\Project A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT A2\52685-Code-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605F78F7-3E35-4ACA-BE81-41C17101DD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7AEE0B-A412-4E8B-997C-E49A9E4F6FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28125" yWindow="1950" windowWidth="28830" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22530" yWindow="780" windowWidth="29295" windowHeight="19455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurants " sheetId="1" r:id="rId1"/>
@@ -566,9 +566,6 @@
     <t xml:space="preserve">Reuben Hills </t>
   </si>
   <si>
-    <t xml:space="preserve"> 61 Albion St, Surry Hills NSW 2010</t>
-  </si>
-  <si>
     <t>9211 5556</t>
   </si>
   <si>
@@ -816,13 +813,16 @@
   </si>
   <si>
     <t>SuburbRange</t>
+  </si>
+  <si>
+    <t>61 Albion St, Surry Hills NSW 2010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -994,6 +994,13 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1018,10 +1025,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1091,8 +1099,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1320,8 +1330,8 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1333,7 +1343,7 @@
     <col min="9" max="9" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,22 +1363,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1403,7 +1413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1438,7 +1448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1473,7 +1483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1508,7 +1518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="14.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1543,7 +1553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="12.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1576,7 +1586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="14.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="14.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1643,7 +1653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="14.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1713,7 +1723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="12.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="12.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1783,7 +1793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="12.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1818,7 +1828,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="12.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1850,7 +1860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="12.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1883,7 +1893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="12.75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1918,7 +1928,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="12.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1950,7 +1960,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="12.75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1985,7 +1995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="12.75">
       <c r="A20" s="25">
         <v>19</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="12.75">
       <c r="A21" s="25">
         <v>20</v>
       </c>
@@ -2055,7 +2065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="12.75">
       <c r="A22" s="25">
         <v>21</v>
       </c>
@@ -2088,7 +2098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="12.75">
       <c r="A23" s="25">
         <v>22</v>
       </c>
@@ -2121,7 +2131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="12.75">
       <c r="A24" s="25">
         <v>23</v>
       </c>
@@ -2154,7 +2164,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="12.75">
       <c r="A25" s="25">
         <v>24</v>
       </c>
@@ -2187,7 +2197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="12.75">
       <c r="A26" s="25">
         <v>25</v>
       </c>
@@ -2222,7 +2232,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="12.75">
       <c r="A27" s="25">
         <v>26</v>
       </c>
@@ -2244,7 +2254,7 @@
       <c r="G27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="31" t="s">
         <v>142</v>
       </c>
       <c r="I27" s="1"/>
@@ -2255,7 +2265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="12.75">
       <c r="A28" s="25">
         <v>27</v>
       </c>
@@ -2290,7 +2300,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="12.75">
       <c r="A29" s="25">
         <v>28</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="12.75">
       <c r="A30" s="25">
         <v>29</v>
       </c>
@@ -2356,7 +2366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="12.75">
       <c r="A31" s="25">
         <v>30</v>
       </c>
@@ -2391,7 +2401,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="12.75">
       <c r="A32" s="25">
         <v>31</v>
       </c>
@@ -2405,19 +2415,19 @@
         <v>40</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="31" t="s">
         <v>167</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="J32" s="1">
         <v>2010</v>
@@ -2426,12 +2436,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="12.75">
       <c r="A33" s="25">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -2440,16 +2450,16 @@
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="J33" s="1">
         <v>2166</v>
@@ -2458,12 +2468,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="12.75">
       <c r="A34" s="25">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>64</v>
@@ -2472,33 +2482,33 @@
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>177</v>
       </c>
       <c r="J34" s="1">
         <v>2000</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="12.75">
       <c r="A35" s="25">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>64</v>
@@ -2507,83 +2517,83 @@
         <v>40</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="J35" s="1">
         <v>2000</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="12.75">
       <c r="A36" s="25">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="I36" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>188</v>
       </c>
       <c r="J36" s="1">
         <v>2000</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="12.75">
       <c r="A37" s="25">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="J37" s="1">
         <v>2010</v>
@@ -2592,111 +2602,111 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="12.75">
       <c r="A38" s="25">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="J38" s="1">
         <v>2000</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.75">
       <c r="A39" s="25">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="J39" s="1">
         <v>2000</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="12.75">
       <c r="A40" s="25">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="I40" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="J40" s="1">
         <v>2000</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="12.75">
       <c r="A41" s="25">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>119</v>
@@ -2705,19 +2715,19 @@
         <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="12.75">
@@ -2725,7 +2735,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>103</v>
@@ -2734,22 +2744,22 @@
         <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>212</v>
       </c>
       <c r="J42" s="1">
         <v>2000</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="12.75">
@@ -2757,7 +2767,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>103</v>
@@ -2766,19 +2776,19 @@
         <v>40</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="J43" s="1">
         <v>2000</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="12.75">
@@ -2786,7 +2796,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>9</v>
@@ -2795,22 +2805,22 @@
         <v>40</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="22" t="s">
         <v>218</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>219</v>
       </c>
       <c r="J44" s="1">
         <v>2000</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="12.75">
@@ -2818,7 +2828,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>103</v>
@@ -2827,22 +2837,22 @@
         <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>223</v>
       </c>
       <c r="J45" s="1">
         <v>2000</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="12.75">
@@ -2850,7 +2860,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>75</v>
@@ -2859,25 +2869,25 @@
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="I46" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="J46" s="1">
         <v>2000</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="12.75">
@@ -2885,7 +2895,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>88</v>
@@ -2894,22 +2904,22 @@
         <v>40</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>232</v>
       </c>
       <c r="J47" s="1">
         <v>2000</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="12.75">
@@ -2917,7 +2927,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>119</v>
@@ -2926,25 +2936,25 @@
         <v>40</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="I48" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="J48" s="1">
         <v>2000</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="12.75">
@@ -2952,7 +2962,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>119</v>
@@ -2961,16 +2971,16 @@
         <v>40</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="J49" s="1">
         <v>2137</v>
@@ -2984,31 +2994,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>245</v>
       </c>
       <c r="J50" s="1">
         <v>2000</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12.75">
@@ -3104,5 +3114,6 @@
     <hyperlink ref="H50" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId77"/>
 </worksheet>
 </file>